--- a/updatedData5Feb2026.xlsx
+++ b/updatedData5Feb2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wurud\wurud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4110BE4-4504-460F-BA7C-300D037B9109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C711B0-B3C9-4763-A6CC-E02827120CDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D37F9EB3-B908-4F1D-A195-08C97085001E}"/>
   </bookViews>
@@ -1886,8 +1886,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A152"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5142,8 +5142,8 @@
       <c r="J95" t="s">
         <v>310</v>
       </c>
-      <c r="K95" t="s">
-        <v>152</v>
+      <c r="K95" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5174,8 +5174,8 @@
       <c r="J96" t="s">
         <v>312</v>
       </c>
-      <c r="K96" t="s">
-        <v>152</v>
+      <c r="K96" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5206,8 +5206,8 @@
       <c r="J97" t="s">
         <v>314</v>
       </c>
-      <c r="K97" t="s">
-        <v>152</v>
+      <c r="K97" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5238,8 +5238,8 @@
       <c r="J98" t="s">
         <v>316</v>
       </c>
-      <c r="K98" t="s">
-        <v>152</v>
+      <c r="K98" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5270,8 +5270,8 @@
       <c r="J99" t="s">
         <v>318</v>
       </c>
-      <c r="K99" t="s">
-        <v>152</v>
+      <c r="K99" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5302,8 +5302,8 @@
       <c r="J100" t="s">
         <v>320</v>
       </c>
-      <c r="K100" t="s">
-        <v>152</v>
+      <c r="K100" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
